--- a/results/F1_score_2x_colab.xlsx
+++ b/results/F1_score_2x_colab.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\git\ClusterGCN\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14F3716-D418-4B05-9D85-EC12BC84DCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t>Winner Membership Closeness</t>
   </si>
@@ -47,23 +52,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,26 +84,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,20 +408,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,807 +434,807 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.1</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.7189260855154127</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2933573790201383</v>
-      </c>
-      <c r="F2" t="n">
-        <v>46.08572626113892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="n">
+      <c r="D2">
+        <v>0.71892608551541271</v>
+      </c>
+      <c r="E2">
+        <v>0.29335737902013831</v>
+      </c>
+      <c r="F2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.2</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.695697796432319</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2257288848812744</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.080239057540894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="n">
+      <c r="D3">
+        <v>0.69569779643231899</v>
+      </c>
+      <c r="E3">
+        <v>0.22572888488127441</v>
+      </c>
+      <c r="F3">
+        <v>6.0802390575408944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.3</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.6939078751857355</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1526901112113015</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5.27552318572998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="n">
+      <c r="D4">
+        <v>0.69390787518573549</v>
+      </c>
+      <c r="E4">
+        <v>0.15269011121130149</v>
+      </c>
+      <c r="F4">
+        <v>5.2755231857299796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.4</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.6916796267496111</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.69167962674961114</v>
+      </c>
+      <c r="E5">
         <v>0.1018935978358881</v>
       </c>
-      <c r="F5" t="n">
-        <v>5.456994771957397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="n">
+      <c r="F5">
+        <v>5.4569947719573966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.6671993607670795</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.07243763149984961</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5.293068647384644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="n">
+      <c r="D6">
+        <v>0.66719936076707953</v>
+      </c>
+      <c r="E6">
+        <v>7.2437631499849608E-2</v>
+      </c>
+      <c r="F6">
+        <v>5.2930686473846444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.6</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.7016260162601626</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.05350165314096778</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5.398998022079468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="n">
+      <c r="D7">
+        <v>0.70162601626016263</v>
+      </c>
+      <c r="E7">
+        <v>5.3501653140967782E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.3989980220794678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.6703658035347307</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.042380522993688</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5.388956069946289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="n">
+      <c r="D8">
+        <v>0.67036580353473074</v>
+      </c>
+      <c r="E8">
+        <v>4.2380522993687997E-2</v>
+      </c>
+      <c r="F8">
+        <v>5.3889560699462891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.686167989970748</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0255485422302375</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.424627542495728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="n">
+      <c r="D9">
+        <v>0.68616798997074802</v>
+      </c>
+      <c r="E9">
+        <v>2.55485422302375E-2</v>
+      </c>
+      <c r="F9">
+        <v>5.4246275424957284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.7042670046472328</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.01412684099789607</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5.88148021697998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="n">
+      <c r="E10">
+        <v>1.4126840997896069E-2</v>
+      </c>
+      <c r="F10">
+        <v>5.8814802169799796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.6756640959725793</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.67566409597257926</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="n">
-        <v>5.705260515213013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="n">
+      <c r="F11">
+        <v>5.7052605152130127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.1</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.7806935332708529</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6864844903988183</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6.366914749145508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="n">
+      <c r="D12">
+        <v>0.78069353327085289</v>
+      </c>
+      <c r="E12">
+        <v>0.68648449039881831</v>
+      </c>
+      <c r="F12">
+        <v>6.3669147491455078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.2</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.8156028368794325</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.4841211225997046</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5.971061944961548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="n">
+      <c r="D13">
+        <v>0.81560283687943247</v>
+      </c>
+      <c r="E13">
+        <v>0.48412112259970458</v>
+      </c>
+      <c r="F13">
+        <v>5.9710619449615479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.3</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.7916346891788181</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.3714918759231904</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="D14">
+        <v>0.79163468917881807</v>
+      </c>
+      <c r="E14">
+        <v>0.37149187592319038</v>
+      </c>
+      <c r="F14">
         <v>5.904686450958252</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.4</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.7811860940695295</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.2861890694239291</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5.756431102752686</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="n">
+      <c r="D15">
+        <v>0.78118609406952955</v>
+      </c>
+      <c r="E15">
+        <v>0.28618906942392908</v>
+      </c>
+      <c r="F15">
+        <v>5.7564311027526864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.5</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.743225806451613</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.223042836041359</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5.699167728424072</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="n">
+      <c r="D16">
+        <v>0.74322580645161296</v>
+      </c>
+      <c r="E16">
+        <v>0.22304283604135899</v>
+      </c>
+      <c r="F16">
+        <v>5.6991677284240723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.6</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.7958818263205013</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.79588182632050131</v>
+      </c>
+      <c r="E17">
         <v>0.1754062038404727</v>
       </c>
-      <c r="F17" t="n">
-        <v>5.774042844772339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="n">
+      <c r="F17">
+        <v>5.7740428447723389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.7</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.7947494033412887</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.1019202363367799</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5.768069744110107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="n">
+      <c r="D18">
+        <v>0.79474940334128874</v>
+      </c>
+      <c r="E18">
+        <v>0.10192023633677991</v>
+      </c>
+      <c r="F18">
+        <v>5.7680697441101074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.8</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.8120039682539683</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.06019202363367793</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5.885817050933838</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="n">
+      <c r="D19">
+        <v>0.81200396825396826</v>
+      </c>
+      <c r="E19">
+        <v>6.0192023633677927E-2</v>
+      </c>
+      <c r="F19">
+        <v>5.8858170509338379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.9</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.6963645673323092</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0284342688330872</v>
-      </c>
-      <c r="F20" t="n">
-        <v>6.127270936965942</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="n">
+      <c r="D20">
+        <v>0.69636456733230923</v>
+      </c>
+      <c r="E20">
+        <v>2.8434268833087199E-2</v>
+      </c>
+      <c r="F20">
+        <v>6.1272709369659424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.8013662637940094</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.80136626379400944</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="n">
-        <v>6.352111339569092</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="n">
+      <c r="F21">
+        <v>6.3521113395690918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.1</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.8007051219273332</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.479484708627073</v>
-      </c>
-      <c r="F22" t="n">
-        <v>46.86830830574036</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="n">
+      <c r="D22">
+        <v>0.80070512192733323</v>
+      </c>
+      <c r="E22">
+        <v>0.47948470862707299</v>
+      </c>
+      <c r="F22">
+        <v>46.868308305740364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.2</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.8238899043113643</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.3475680884515899</v>
-      </c>
-      <c r="F23" t="n">
-        <v>48.3053035736084</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="n">
+      <c r="D23">
+        <v>0.82388990431136433</v>
+      </c>
+      <c r="E23">
+        <v>0.34756808845158987</v>
+      </c>
+      <c r="F23">
+        <v>48.305303573608398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0.3</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.8114524340712775</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.2664198407465639</v>
-      </c>
-      <c r="F24" t="n">
-        <v>47.16425752639771</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="n">
+      <c r="D24">
+        <v>0.81145243407127754</v>
+      </c>
+      <c r="E24">
+        <v>0.26641984074656389</v>
+      </c>
+      <c r="F24">
+        <v>47.164257526397712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>0.4</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.7056894083969466</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.2148399857990566</v>
-      </c>
-      <c r="F25" t="n">
-        <v>47.6194486618042</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="n">
+      <c r="E25">
+        <v>0.21483998579905661</v>
+      </c>
+      <c r="F25">
+        <v>47.619448661804199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>0.5</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.7118121143432816</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.71181211434328162</v>
+      </c>
+      <c r="E26">
         <v>0.1505299994928235</v>
       </c>
-      <c r="F26" t="n">
-        <v>49.72095561027527</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="n">
+      <c r="F26">
+        <v>49.720955610275269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.6</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.6698358947642615</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.1124410407262768</v>
-      </c>
-      <c r="F27" t="n">
-        <v>48.87950539588928</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="n">
+      <c r="D27">
+        <v>0.66983589476426153</v>
+      </c>
+      <c r="E27">
+        <v>0.11244104072627679</v>
+      </c>
+      <c r="F27">
+        <v>48.879505395889282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.7</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.5500672043010753</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.07790231779682499</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="D28">
+        <v>0.55006720430107525</v>
+      </c>
+      <c r="E28">
+        <v>7.7902317796824994E-2</v>
+      </c>
+      <c r="F28">
         <v>49.40165376663208</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>0.8</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.5424678378752248</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.04726885428817762</v>
-      </c>
-      <c r="F29" t="n">
-        <v>48.01502084732056</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="n">
+      <c r="D29">
+        <v>0.54246783787522479</v>
+      </c>
+      <c r="E29">
+        <v>4.726885428817762E-2</v>
+      </c>
+      <c r="F29">
+        <v>48.015020847320557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>0.9</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.6494310099573257</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.01851194400770906</v>
-      </c>
-      <c r="F30" t="n">
-        <v>46.20814800262451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="n">
+      <c r="D30">
+        <v>0.64943100995732572</v>
+      </c>
+      <c r="E30">
+        <v>1.8511944007709061E-2</v>
+      </c>
+      <c r="F30">
+        <v>46.208148002624512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.5338645418326693</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.53386454183266929</v>
+      </c>
+      <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="n">
-        <v>45.7499144077301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="n">
+      <c r="F31">
+        <v>45.749914407730103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>0.1</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.644323418516967</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1.330570036748996</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="D32">
+        <v>0.64432341851696695</v>
+      </c>
+      <c r="E32">
+        <v>1.3305700367489961</v>
+      </c>
+      <c r="F32">
         <v>222.4064652919769</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>0.2</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.6020226434295891</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.9184685069652168</v>
-      </c>
-      <c r="F33" t="n">
-        <v>223.9905338287354</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="n">
+      <c r="D33">
+        <v>0.60202264342958911</v>
+      </c>
+      <c r="E33">
+        <v>0.91846850696521676</v>
+      </c>
+      <c r="F33">
+        <v>223.99053382873541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>0.3</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.5856745683347966</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.6677207076318263</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="D34">
+        <v>0.58567456833479659</v>
+      </c>
+      <c r="E34">
+        <v>0.66772070763182634</v>
+      </c>
+      <c r="F34">
         <v>223.7058508396149</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0.4</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.5852014294996751</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5018374497906162</v>
-      </c>
-      <c r="F35" t="n">
-        <v>221.5979051589966</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="n">
+      <c r="D35">
+        <v>0.58520142949967513</v>
+      </c>
+      <c r="E35">
+        <v>0.50183744979061617</v>
+      </c>
+      <c r="F35">
+        <v>221.59790515899661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.5</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.5998571556111062</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>0.3664644047517307</v>
       </c>
-      <c r="F36" t="n">
-        <v>220.8504903316498</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="n">
+      <c r="F36">
+        <v>220.85049033164981</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.6</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.6250240987083092</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.2657892487821554</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="D37">
+        <v>0.62502409870830922</v>
+      </c>
+      <c r="E37">
+        <v>0.26578924878215537</v>
+      </c>
+      <c r="F37">
         <v>222.6041655540466</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.7</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.5936782808262049</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.169301769079566</v>
-      </c>
-      <c r="F38" t="n">
-        <v>221.1584522724152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="n">
+      <c r="D38">
+        <v>0.59367828082620488</v>
+      </c>
+      <c r="E38">
+        <v>0.16930176907956601</v>
+      </c>
+      <c r="F38">
+        <v>221.15845227241519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.8</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.611585839529464</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.09905136313135632</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="D39">
+        <v>0.61158583952946399</v>
+      </c>
+      <c r="E39">
+        <v>9.9051363131356318E-2</v>
+      </c>
+      <c r="F39">
         <v>220.5624129772186</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.9</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.5744110100303242</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.04572258781300742</v>
-      </c>
-      <c r="F40" t="n">
-        <v>219.531970500946</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="n">
+      <c r="D40">
+        <v>0.57441101003032424</v>
+      </c>
+      <c r="E40">
+        <v>4.572258781300742E-2</v>
+      </c>
+      <c r="F40">
+        <v>219.53197050094599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.5980727006586972</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.59807270065869722</v>
+      </c>
+      <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" t="n">
-        <v>219.411238193512</v>
+      <c r="F41">
+        <v>219.41123819351199</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>